--- a/release/dev/ca_data/300365809.pdf.xlsx
+++ b/release/dev/ca_data/300365809.pdf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cinnamon\nlp_live_demo\bidding documents\ca_open_bid_電力\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaowh/Downloads/bidding_document_dataset/release/dev/ca_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EE02D1-5535-41BC-B836-B1943110A3DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9B430B-AA96-EA49-B5E6-97D8C52D1958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="177">
   <si>
     <t>Page No</t>
   </si>
@@ -539,9 +539,6 @@
   </si>
   <si>
     <t>令和２年２月１８日（火）１６時００分</t>
-  </si>
-  <si>
-    <t>＊資格申請送付先;＊資格申請送付先　部署／担当者名</t>
   </si>
   <si>
     <t>開札日時</t>
@@ -1044,22 +1041,22 @@
   <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="82.6640625" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="34.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1082,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1105,7 +1102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1125,7 +1122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1151,7 +1148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1171,7 +1168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1191,7 +1188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1211,7 +1208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -1237,7 +1234,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1257,7 +1254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1278,7 +1275,7 @@
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1304,7 +1301,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -1324,7 +1321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -1344,7 +1341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -1364,7 +1361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -1384,7 +1381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -1404,7 +1401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -1424,7 +1421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -1444,7 +1441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -1464,7 +1461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -1484,7 +1481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -1504,7 +1501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -1524,7 +1521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -1544,7 +1541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -1564,7 +1561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -1584,7 +1581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -1604,7 +1601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -1624,7 +1621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -1644,7 +1641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -1664,7 +1661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -1684,7 +1681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -1704,7 +1701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -1724,7 +1721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -1744,7 +1741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -1764,7 +1761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -1784,7 +1781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -1804,7 +1801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>1</v>
       </c>
@@ -1824,7 +1821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -1844,7 +1841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>1</v>
       </c>
@@ -1864,7 +1861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>1</v>
       </c>
@@ -1884,7 +1881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>2</v>
       </c>
@@ -1904,7 +1901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>2</v>
       </c>
@@ -1924,7 +1921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>2</v>
       </c>
@@ -1944,7 +1941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>2</v>
       </c>
@@ -1964,7 +1961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>2</v>
       </c>
@@ -1984,7 +1981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>2</v>
       </c>
@@ -2004,7 +2001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>2</v>
       </c>
@@ -2024,7 +2021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>2</v>
       </c>
@@ -2044,7 +2041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>2</v>
       </c>
@@ -2064,7 +2061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>2</v>
       </c>
@@ -2084,7 +2081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>2</v>
       </c>
@@ -2104,7 +2101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2</v>
       </c>
@@ -2124,7 +2121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>2</v>
       </c>
@@ -2144,7 +2141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>2</v>
       </c>
@@ -2170,7 +2167,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>2</v>
       </c>
@@ -2196,7 +2193,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>2</v>
       </c>
@@ -2222,7 +2219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>2</v>
       </c>
@@ -2248,7 +2245,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>2</v>
       </c>
@@ -2274,7 +2271,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>2</v>
       </c>
@@ -2295,7 +2292,7 @@
       </c>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>2</v>
       </c>
@@ -2315,7 +2312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>2</v>
       </c>
@@ -2341,7 +2338,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>2</v>
       </c>
@@ -2367,7 +2364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>2</v>
       </c>
@@ -2393,7 +2390,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>2</v>
       </c>
@@ -2419,7 +2416,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>2</v>
       </c>
@@ -2439,7 +2436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>2</v>
       </c>
@@ -2459,7 +2456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>2</v>
       </c>
@@ -2479,7 +2476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>2</v>
       </c>
@@ -2499,7 +2496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>2</v>
       </c>
@@ -2519,7 +2516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>2</v>
       </c>
@@ -2539,7 +2536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>2</v>
       </c>
@@ -2559,7 +2556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>2</v>
       </c>
@@ -2579,7 +2576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>2</v>
       </c>
@@ -2599,7 +2596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>2</v>
       </c>
@@ -2625,7 +2622,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>2</v>
       </c>
@@ -2644,11 +2641,9 @@
       <c r="F75" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>2</v>
       </c>
@@ -2669,7 +2664,7 @@
       </c>
       <c r="G76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>2</v>
       </c>
@@ -2689,7 +2684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>2</v>
       </c>
@@ -2709,7 +2704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>2</v>
       </c>
@@ -2729,7 +2724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>3</v>
       </c>
@@ -2749,7 +2744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>3</v>
       </c>
@@ -2769,7 +2764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>3</v>
       </c>
@@ -2789,7 +2784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>3</v>
       </c>
@@ -2809,7 +2804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>3</v>
       </c>
@@ -2829,7 +2824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>3</v>
       </c>
@@ -2849,7 +2844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>3</v>
       </c>
@@ -2869,7 +2864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>3</v>
       </c>
@@ -2889,13 +2884,13 @@
         <v>7</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H87" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>3</v>
       </c>
@@ -2915,13 +2910,13 @@
         <v>7</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H88" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>3</v>
       </c>
@@ -2941,13 +2936,13 @@
         <v>7</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>3</v>
       </c>
@@ -2967,7 +2962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>3</v>
       </c>
@@ -2987,7 +2982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>3</v>
       </c>
@@ -3007,7 +3002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>3</v>
       </c>
@@ -3027,7 +3022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>3</v>
       </c>
@@ -3047,7 +3042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>3</v>
       </c>
@@ -3067,7 +3062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>3</v>
       </c>
@@ -3087,7 +3082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>3</v>
       </c>
@@ -3107,7 +3102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>3</v>
       </c>
@@ -3127,7 +3122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>3</v>
       </c>
@@ -3147,7 +3142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>3</v>
       </c>
@@ -3167,7 +3162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>3</v>
       </c>
@@ -3187,7 +3182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>3</v>
       </c>
@@ -3207,7 +3202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>3</v>
       </c>
@@ -3227,7 +3222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>3</v>
       </c>
@@ -3247,7 +3242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>3</v>
       </c>
@@ -3267,7 +3262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>3</v>
       </c>
@@ -3287,7 +3282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>3</v>
       </c>
@@ -3307,7 +3302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>3</v>
       </c>
@@ -3327,7 +3322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>3</v>
       </c>
@@ -3347,7 +3342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>3</v>
       </c>
@@ -3367,7 +3362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>3</v>
       </c>
@@ -3387,7 +3382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>3</v>
       </c>
@@ -3407,7 +3402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>3</v>
       </c>
@@ -3427,7 +3422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>3</v>
       </c>
@@ -3447,7 +3442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>3</v>
       </c>
@@ -3467,7 +3462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>3</v>
       </c>
@@ -3487,7 +3482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>4</v>
       </c>
@@ -3507,7 +3502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>4</v>
       </c>
@@ -3527,7 +3522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>4</v>
       </c>
@@ -3547,7 +3542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>4</v>
       </c>
@@ -3567,7 +3562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>4</v>
       </c>
@@ -3587,7 +3582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>4</v>
       </c>
@@ -3607,7 +3602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>4</v>
       </c>
@@ -3627,7 +3622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>4</v>
       </c>
@@ -3647,7 +3642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>4</v>
       </c>
@@ -3667,7 +3662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>4</v>
       </c>
@@ -3687,7 +3682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>4</v>
       </c>
@@ -3707,7 +3702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>4</v>
       </c>
@@ -3727,7 +3722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>4</v>
       </c>
@@ -3747,7 +3742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>4</v>
       </c>
@@ -3767,7 +3762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>4</v>
       </c>
@@ -3787,7 +3782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>4</v>
       </c>
@@ -3807,7 +3802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>4</v>
       </c>
@@ -3827,7 +3822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>4</v>
       </c>
@@ -3847,7 +3842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>4</v>
       </c>
@@ -3867,7 +3862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>4</v>
       </c>
@@ -3887,7 +3882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>4</v>
       </c>
@@ -3907,7 +3902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>4</v>
       </c>
@@ -3927,7 +3922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>4</v>
       </c>
@@ -3947,7 +3942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>4</v>
       </c>
@@ -3967,7 +3962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>4</v>
       </c>
@@ -3987,7 +3982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>4</v>
       </c>
@@ -4007,7 +4002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>4</v>
       </c>
@@ -4027,7 +4022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>4</v>
       </c>
@@ -4047,7 +4042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>4</v>
       </c>
@@ -4067,7 +4062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>4</v>
       </c>
@@ -4087,7 +4082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>4</v>
       </c>
@@ -4107,7 +4102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>4</v>
       </c>
@@ -4127,7 +4122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>4</v>
       </c>
@@ -4147,7 +4142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>4</v>
       </c>
@@ -4167,7 +4162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>4</v>
       </c>
@@ -4187,7 +4182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>4</v>
       </c>
@@ -4207,7 +4202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>4</v>
       </c>
@@ -4227,7 +4222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>4</v>
       </c>
